--- a/temp/pe-ratio-history/Nifty50-weekly.xlsx
+++ b/temp/pe-ratio-history/Nifty50-weekly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -667,11 +667,25 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF209C38"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -685,112 +699,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF209C38"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF209C38"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF209C38"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -19192,7 +19101,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:Z66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Z23" sqref="Z23:Z24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -20120,8 +20031,8 @@
       <c r="Y13" s="7">
         <v>41.032499999999999</v>
       </c>
-      <c r="Z13" s="7" t="s">
-        <v>2</v>
+      <c r="Z13" s="7">
+        <v>20.942</v>
       </c>
     </row>
     <row r="14" spans="2:26">
@@ -20197,8 +20108,8 @@
       <c r="Y14" s="7">
         <v>40.235999999999997</v>
       </c>
-      <c r="Z14" s="7" t="s">
-        <v>2</v>
+      <c r="Z14" s="7">
+        <v>21.79</v>
       </c>
     </row>
     <row r="15" spans="2:26">
@@ -20274,8 +20185,8 @@
       <c r="Y15" s="7">
         <v>39.729999999999997</v>
       </c>
-      <c r="Z15" s="7" t="s">
-        <v>2</v>
+      <c r="Z15" s="7">
+        <v>22.125999999999902</v>
       </c>
     </row>
     <row r="16" spans="2:26">
@@ -20351,8 +20262,8 @@
       <c r="Y16" s="7">
         <v>35.743333333333297</v>
       </c>
-      <c r="Z16" s="7" t="s">
-        <v>2</v>
+      <c r="Z16" s="7">
+        <v>22.603999999999999</v>
       </c>
     </row>
     <row r="17" spans="2:26">
@@ -20428,8 +20339,8 @@
       <c r="Y17" s="7">
         <v>33.378</v>
       </c>
-      <c r="Z17" s="7" t="s">
-        <v>2</v>
+      <c r="Z17" s="7">
+        <v>23.423999999999999</v>
       </c>
     </row>
     <row r="18" spans="2:26">
@@ -20505,8 +20416,8 @@
       <c r="Y18" s="7">
         <v>32.67</v>
       </c>
-      <c r="Z18" s="7" t="s">
-        <v>2</v>
+      <c r="Z18" s="7">
+        <v>23.043333333333301</v>
       </c>
     </row>
     <row r="19" spans="2:26">
@@ -20582,8 +20493,8 @@
       <c r="Y19" s="7">
         <v>32.094999999999999</v>
       </c>
-      <c r="Z19" s="7" t="s">
-        <v>2</v>
+      <c r="Z19" s="7">
+        <v>22.402000000000001</v>
       </c>
     </row>
     <row r="20" spans="2:26">
@@ -20659,8 +20570,8 @@
       <c r="Y20" s="7">
         <v>32.478000000000002</v>
       </c>
-      <c r="Z20" s="7" t="s">
-        <v>2</v>
+      <c r="Z20" s="7">
+        <v>22.074000000000002</v>
       </c>
     </row>
     <row r="21" spans="2:26">
@@ -20736,8 +20647,8 @@
       <c r="Y21" s="7">
         <v>30.741999999999901</v>
       </c>
-      <c r="Z21" s="7" t="s">
-        <v>2</v>
+      <c r="Z21" s="7">
+        <v>21.327500000000001</v>
       </c>
     </row>
     <row r="22" spans="2:26">
@@ -20813,8 +20724,8 @@
       <c r="Y22" s="7">
         <v>30.047499999999999</v>
       </c>
-      <c r="Z22" s="7" t="s">
-        <v>2</v>
+      <c r="Z22" s="7">
+        <v>20.238</v>
       </c>
     </row>
     <row r="23" spans="2:26">
@@ -20890,8 +20801,8 @@
       <c r="Y23" s="7">
         <v>29.956</v>
       </c>
-      <c r="Z23" s="7" t="s">
-        <v>2</v>
+      <c r="Z23" s="7">
+        <v>19.898</v>
       </c>
     </row>
     <row r="24" spans="2:26">
@@ -20967,8 +20878,8 @@
       <c r="Y24" s="7">
         <v>29.3279999999999</v>
       </c>
-      <c r="Z24" s="7" t="s">
-        <v>2</v>
+      <c r="Z24" s="7">
+        <v>19.954000000000001</v>
       </c>
     </row>
     <row r="25" spans="2:26">
@@ -21044,8 +20955,8 @@
       <c r="Y25" s="7">
         <v>29.026</v>
       </c>
-      <c r="Z25" s="7" t="s">
-        <v>2</v>
+      <c r="Z25" s="7">
+        <v>20.527999999999999</v>
       </c>
     </row>
     <row r="26" spans="2:26">
@@ -21121,8 +21032,8 @@
       <c r="Y26" s="7">
         <v>29.173999999999999</v>
       </c>
-      <c r="Z26" s="7" t="s">
-        <v>2</v>
+      <c r="Z26" s="7">
+        <v>20.5</v>
       </c>
     </row>
     <row r="27" spans="2:26">
@@ -23397,22 +23308,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:Z55">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="between">
-      <formula>18</formula>
-      <formula>22</formula>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"NaN"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
-      <formula>18</formula>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
       <formula>22</formula>
       <formula>26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
-      <formula>26</formula>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+      <formula>18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
-      <formula>"NaN"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="between">
+      <formula>18</formula>
+      <formula>22</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
